--- a/demo.xlsx
+++ b/demo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3CADCE08-F6D8-48EA-992D-0689AADD7AA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27975" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27980" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,23 +239,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -292,23 +274,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,21 +449,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -515,7 +480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -532,7 +497,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -549,7 +514,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -566,7 +531,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -583,7 +548,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -600,7 +565,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -617,7 +582,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -634,7 +599,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -651,7 +616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -668,7 +633,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -693,12 +658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -706,12 +673,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
